--- a/data/Building Stats.xlsx
+++ b/data/Building Stats.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="52">
   <si>
     <t>Type</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Tier</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Building ID</t>
   </si>
   <si>
     <t>Faction</t>
@@ -76,52 +76,73 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>Allows the production of tier 1 units</t>
+    <t>Tier 1 building that allows the production of tier 1 units.</t>
   </si>
   <si>
     <t>Farm</t>
   </si>
   <si>
+    <t>Tier 1 building that produces basic resources needed in the early game.</t>
+  </si>
+  <si>
     <t>Mine</t>
+  </si>
+  <si>
+    <t>Tier 1 building that produces gold and metal.</t>
   </si>
   <si>
     <t>Metal refinery</t>
   </si>
   <si>
+    <t>Tier 2 building that produces more metal.</t>
+  </si>
+  <si>
     <t>Crystal refinery</t>
+  </si>
+  <si>
+    <t>Tier 2 building that produces crystal.</t>
   </si>
   <si>
     <t>Balista Tower</t>
   </si>
   <si>
-    <t>Provides  +1 ranged roll, (1 for 3)</t>
+    <t>Tier 2 defensive building that provides  +1 ranged roll for settlement (1 for 3).</t>
   </si>
   <si>
     <t>Armory</t>
   </si>
   <si>
-    <t>Allows the production of tier 2 units</t>
+    <t>Tier 2 building that allows the production of tier 2 units.</t>
   </si>
   <si>
     <t>Bank:</t>
   </si>
   <si>
+    <t>Tier 2 building that produces a significant amount of gold.</t>
+  </si>
+  <si>
     <t>Commander’s Lodging</t>
+  </si>
+  <si>
+    <t>Tier 3 building that allows the the production of Commander Unit,</t>
   </si>
   <si>
     <t>Special Unit building</t>
   </si>
   <si>
-    <t>Allows the production of tier 3 units</t>
+    <t>Tier 3 building that allows the the production of a commander.</t>
   </si>
   <si>
     <t>Factory</t>
   </si>
   <si>
+    <t>Tier 3 building that produces every resource.</t>
+  </si>
+  <si>
     <t>Walls</t>
   </si>
   <si>
-    <t>Provideds 2 hitpoints for settlement and +1 defensive roll (1 for 3)</t>
+    <t>Tier 3 building that provideds +2 hitpoints for settlement and +1 defensive roll (1 for 3).</t>
   </si>
   <si>
     <t>KINGDOM OF AVENGUARD</t>
@@ -543,7 +564,7 @@
     <col customWidth="1" min="16" max="16" width="8.75"/>
     <col customWidth="1" min="17" max="17" width="10.5"/>
     <col customWidth="1" min="18" max="18" width="12.75"/>
-    <col customWidth="1" min="19" max="19" width="46.5"/>
+    <col customWidth="1" min="19" max="19" width="58.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -725,7 +746,9 @@
       <c r="R3" s="5">
         <v>0.0</v>
       </c>
-      <c r="S3" s="4"/>
+      <c r="S3" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
@@ -736,7 +759,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6">
         <v>1.0</v>
@@ -785,7 +808,9 @@
       <c r="R4" s="10">
         <v>0.0</v>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -796,7 +821,7 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <v>2.0</v>
@@ -845,7 +870,9 @@
       <c r="R5" s="5">
         <v>0.0</v>
       </c>
-      <c r="S5" s="4"/>
+      <c r="S5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -856,7 +883,7 @@
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6">
         <v>2.0</v>
@@ -905,7 +932,9 @@
       <c r="R6" s="5">
         <v>0.0</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -916,7 +945,7 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6">
         <v>2.0</v>
@@ -966,7 +995,7 @@
         <v>1.0</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -978,7 +1007,7 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B8" s="7">
         <v>2.0</v>
@@ -1028,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1040,7 +1069,7 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" s="7">
         <v>2.0</v>
@@ -1089,7 +1118,9 @@
       <c r="R9" s="5">
         <v>0.0</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -1100,7 +1131,7 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5">
         <v>3.0</v>
@@ -1149,7 +1180,9 @@
       <c r="R10" s="5">
         <v>0.0</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -1160,7 +1193,7 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5">
         <v>3.0</v>
@@ -1210,7 +1243,7 @@
         <v>0.0</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
@@ -1222,7 +1255,7 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5">
         <v>3.0</v>
@@ -1271,7 +1304,9 @@
       <c r="R12" s="5">
         <v>2.0</v>
       </c>
-      <c r="S12" s="4"/>
+      <c r="S12" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -1282,7 +1317,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5">
         <v>3.0</v>
@@ -1332,7 +1367,7 @@
         <v>2.0</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -1344,7 +1379,7 @@
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1383,7 +1418,7 @@
         <v>200.0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="5">
@@ -1445,7 +1480,7 @@
         <v>201.0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="5">
@@ -1485,7 +1520,9 @@
       <c r="R16" s="5">
         <v>0.0</v>
       </c>
-      <c r="S16" s="4"/>
+      <c r="S16" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -1496,7 +1533,7 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5">
         <v>1.0</v>
@@ -1505,7 +1542,7 @@
         <v>202.0</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10">
@@ -1545,7 +1582,9 @@
       <c r="R17" s="10">
         <v>0.0</v>
       </c>
-      <c r="S17" s="8"/>
+      <c r="S17" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -1556,7 +1595,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5">
         <v>2.0</v>
@@ -1565,7 +1604,7 @@
         <v>203.0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="5">
@@ -1605,7 +1644,9 @@
       <c r="R18" s="5">
         <v>0.0</v>
       </c>
-      <c r="S18" s="4"/>
+      <c r="S18" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
@@ -1616,7 +1657,7 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5">
         <v>2.0</v>
@@ -1625,7 +1666,7 @@
         <v>204.0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="5">
@@ -1665,7 +1706,9 @@
       <c r="R19" s="5">
         <v>0.0</v>
       </c>
-      <c r="S19" s="4"/>
+      <c r="S19" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
@@ -1676,7 +1719,7 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B20" s="5">
         <v>2.0</v>
@@ -1685,7 +1728,7 @@
         <v>205.0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="5">
@@ -1726,7 +1769,7 @@
         <v>1.0</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -1738,7 +1781,7 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5">
         <v>2.0</v>
@@ -1747,7 +1790,7 @@
         <v>206.0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="5">
@@ -1788,7 +1831,7 @@
         <v>0.0</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -1800,7 +1843,7 @@
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22" s="5">
         <v>2.0</v>
@@ -1809,7 +1852,7 @@
         <v>207.0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="5">
@@ -1849,7 +1892,9 @@
       <c r="R22" s="5">
         <v>0.0</v>
       </c>
-      <c r="S22" s="4"/>
+      <c r="S22" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -1860,7 +1905,7 @@
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B23" s="5">
         <v>3.0</v>
@@ -1869,7 +1914,7 @@
         <v>208.0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="5">
@@ -1909,7 +1954,9 @@
       <c r="R23" s="5">
         <v>0.0</v>
       </c>
-      <c r="S23" s="4"/>
+      <c r="S23" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -1920,7 +1967,7 @@
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5">
         <v>3.0</v>
@@ -1929,7 +1976,7 @@
         <v>209.0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="5">
@@ -1970,7 +2017,7 @@
         <v>0.0</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -1982,7 +2029,7 @@
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5">
         <v>3.0</v>
@@ -1991,7 +2038,7 @@
         <v>210.0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="5">
@@ -2031,7 +2078,9 @@
       <c r="R25" s="5">
         <v>2.0</v>
       </c>
-      <c r="S25" s="4"/>
+      <c r="S25" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -2042,7 +2091,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5">
         <v>3.0</v>
@@ -2051,7 +2100,7 @@
         <v>211.0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="5">
@@ -2092,7 +2141,7 @@
         <v>2.0</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -2104,7 +2153,7 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2143,7 +2192,7 @@
         <v>300.0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="5">
@@ -2205,7 +2254,7 @@
         <v>301.0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="5">
@@ -2245,7 +2294,9 @@
       <c r="R29" s="5">
         <v>0.0</v>
       </c>
-      <c r="S29" s="4"/>
+      <c r="S29" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
@@ -2256,7 +2307,7 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="5">
         <v>1.0</v>
@@ -2265,7 +2316,7 @@
         <v>302.0</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10">
@@ -2305,7 +2356,9 @@
       <c r="R30" s="10">
         <v>0.0</v>
       </c>
-      <c r="S30" s="8"/>
+      <c r="S30" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -2316,7 +2369,7 @@
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5">
         <v>2.0</v>
@@ -2325,7 +2378,7 @@
         <v>303.0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="5">
@@ -2365,7 +2418,9 @@
       <c r="R31" s="5">
         <v>0.0</v>
       </c>
-      <c r="S31" s="4"/>
+      <c r="S31" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -2376,7 +2431,7 @@
     </row>
     <row r="32">
       <c r="A32" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B32" s="5">
         <v>2.0</v>
@@ -2385,7 +2440,7 @@
         <v>304.0</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="5">
@@ -2425,7 +2480,9 @@
       <c r="R32" s="5">
         <v>0.0</v>
       </c>
-      <c r="S32" s="4"/>
+      <c r="S32" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -2436,7 +2493,7 @@
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5">
         <v>2.0</v>
@@ -2445,7 +2502,7 @@
         <v>305.0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="5">
@@ -2486,7 +2543,7 @@
         <v>1.0</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -2498,7 +2555,7 @@
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B34" s="5">
         <v>2.0</v>
@@ -2507,7 +2564,7 @@
         <v>306.0</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="5">
@@ -2548,7 +2605,7 @@
         <v>0.0</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
@@ -2560,7 +2617,7 @@
     </row>
     <row r="35">
       <c r="A35" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B35" s="5">
         <v>2.0</v>
@@ -2569,7 +2626,7 @@
         <v>307.0</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="5">
@@ -2609,7 +2666,9 @@
       <c r="R35" s="5">
         <v>0.0</v>
       </c>
-      <c r="S35" s="4"/>
+      <c r="S35" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
@@ -2620,7 +2679,7 @@
     </row>
     <row r="36">
       <c r="A36" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B36" s="5">
         <v>3.0</v>
@@ -2629,7 +2688,7 @@
         <v>308.0</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="5">
@@ -2669,7 +2728,9 @@
       <c r="R36" s="5">
         <v>0.0</v>
       </c>
-      <c r="S36" s="4"/>
+      <c r="S36" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
@@ -2680,7 +2741,7 @@
     </row>
     <row r="37">
       <c r="A37" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B37" s="5">
         <v>3.0</v>
@@ -2689,7 +2750,7 @@
         <v>309.0</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="5">
@@ -2730,7 +2791,7 @@
         <v>0.0</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
@@ -2742,7 +2803,7 @@
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5">
         <v>3.0</v>
@@ -2751,7 +2812,7 @@
         <v>310.0</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="5">
@@ -2791,7 +2852,9 @@
       <c r="R38" s="5">
         <v>2.0</v>
       </c>
-      <c r="S38" s="4"/>
+      <c r="S38" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
@@ -2802,7 +2865,7 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B39" s="5">
         <v>3.0</v>
@@ -2811,7 +2874,7 @@
         <v>311.0</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="5">
@@ -2852,7 +2915,7 @@
         <v>2.0</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
@@ -2864,7 +2927,7 @@
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -2903,7 +2966,7 @@
         <v>400.0</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="5">
@@ -2965,7 +3028,7 @@
         <v>401.0</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="5">
@@ -3005,7 +3068,9 @@
       <c r="R42" s="5">
         <v>0.0</v>
       </c>
-      <c r="S42" s="4"/>
+      <c r="S42" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -3016,7 +3081,7 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B43" s="5">
         <v>1.0</v>
@@ -3025,7 +3090,7 @@
         <v>402.0</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10">
@@ -3065,7 +3130,9 @@
       <c r="R43" s="10">
         <v>0.0</v>
       </c>
-      <c r="S43" s="8"/>
+      <c r="S43" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
@@ -3076,7 +3143,7 @@
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B44" s="5">
         <v>2.0</v>
@@ -3085,7 +3152,7 @@
         <v>403.0</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="5">
@@ -3125,7 +3192,9 @@
       <c r="R44" s="5">
         <v>0.0</v>
       </c>
-      <c r="S44" s="4"/>
+      <c r="S44" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -3136,7 +3205,7 @@
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B45" s="5">
         <v>2.0</v>
@@ -3145,7 +3214,7 @@
         <v>404.0</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="5">
@@ -3185,7 +3254,9 @@
       <c r="R45" s="5">
         <v>0.0</v>
       </c>
-      <c r="S45" s="4"/>
+      <c r="S45" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
@@ -3196,7 +3267,7 @@
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B46" s="5">
         <v>2.0</v>
@@ -3205,7 +3276,7 @@
         <v>405.0</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="5">
@@ -3246,7 +3317,7 @@
         <v>1.0</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
@@ -3258,7 +3329,7 @@
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B47" s="5">
         <v>2.0</v>
@@ -3267,7 +3338,7 @@
         <v>406.0</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="5">
@@ -3308,7 +3379,7 @@
         <v>0.0</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
@@ -3320,7 +3391,7 @@
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B48" s="5">
         <v>2.0</v>
@@ -3329,7 +3400,7 @@
         <v>407.0</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="5">
@@ -3369,7 +3440,9 @@
       <c r="R48" s="5">
         <v>0.0</v>
       </c>
-      <c r="S48" s="4"/>
+      <c r="S48" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
@@ -3380,7 +3453,7 @@
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B49" s="5">
         <v>3.0</v>
@@ -3389,7 +3462,7 @@
         <v>408.0</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="5">
@@ -3429,7 +3502,9 @@
       <c r="R49" s="5">
         <v>0.0</v>
       </c>
-      <c r="S49" s="4"/>
+      <c r="S49" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
@@ -3440,7 +3515,7 @@
     </row>
     <row r="50">
       <c r="A50" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B50" s="5">
         <v>3.0</v>
@@ -3449,7 +3524,7 @@
         <v>409.0</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="5">
@@ -3490,7 +3565,7 @@
         <v>0.0</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
@@ -3502,7 +3577,7 @@
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B51" s="5">
         <v>3.0</v>
@@ -3511,7 +3586,7 @@
         <v>410.0</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="5">
@@ -3551,7 +3626,9 @@
       <c r="R51" s="5">
         <v>2.0</v>
       </c>
-      <c r="S51" s="4"/>
+      <c r="S51" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
@@ -3562,7 +3639,7 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B52" s="5">
         <v>3.0</v>
@@ -3571,7 +3648,7 @@
         <v>411.0</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="5">
@@ -3612,7 +3689,7 @@
         <v>2.0</v>
       </c>
       <c r="S52" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
@@ -3624,7 +3701,7 @@
     </row>
     <row r="53">
       <c r="A53" s="17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -3663,7 +3740,7 @@
         <v>400.0</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="5">
@@ -3725,7 +3802,7 @@
         <v>401.0</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="5">
@@ -3765,7 +3842,9 @@
       <c r="R55" s="5">
         <v>0.0</v>
       </c>
-      <c r="S55" s="4"/>
+      <c r="S55" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
@@ -3776,7 +3855,7 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B56" s="5">
         <v>1.0</v>
@@ -3785,7 +3864,7 @@
         <v>402.0</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="10">
@@ -3825,7 +3904,9 @@
       <c r="R56" s="10">
         <v>0.0</v>
       </c>
-      <c r="S56" s="8"/>
+      <c r="S56" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
@@ -3836,7 +3917,7 @@
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B57" s="5">
         <v>2.0</v>
@@ -3845,7 +3926,7 @@
         <v>403.0</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="5">
@@ -3885,7 +3966,9 @@
       <c r="R57" s="5">
         <v>0.0</v>
       </c>
-      <c r="S57" s="4"/>
+      <c r="S57" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
@@ -3896,7 +3979,7 @@
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B58" s="5">
         <v>2.0</v>
@@ -3905,7 +3988,7 @@
         <v>404.0</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="5">
@@ -3945,7 +4028,9 @@
       <c r="R58" s="5">
         <v>0.0</v>
       </c>
-      <c r="S58" s="4"/>
+      <c r="S58" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
@@ -3956,7 +4041,7 @@
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B59" s="5">
         <v>2.0</v>
@@ -3965,7 +4050,7 @@
         <v>405.0</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="5">
@@ -4006,7 +4091,7 @@
         <v>1.0</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
@@ -4018,7 +4103,7 @@
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B60" s="5">
         <v>2.0</v>
@@ -4027,7 +4112,7 @@
         <v>406.0</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="5">
@@ -4068,7 +4153,7 @@
         <v>0.0</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
@@ -4080,7 +4165,7 @@
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B61" s="5">
         <v>2.0</v>
@@ -4089,7 +4174,7 @@
         <v>407.0</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="5">
@@ -4129,7 +4214,9 @@
       <c r="R61" s="5">
         <v>0.0</v>
       </c>
-      <c r="S61" s="4"/>
+      <c r="S61" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
@@ -4140,7 +4227,7 @@
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B62" s="5">
         <v>3.0</v>
@@ -4149,7 +4236,7 @@
         <v>408.0</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="5">
@@ -4189,7 +4276,9 @@
       <c r="R62" s="5">
         <v>0.0</v>
       </c>
-      <c r="S62" s="4"/>
+      <c r="S62" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
@@ -4200,7 +4289,7 @@
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B63" s="5">
         <v>3.0</v>
@@ -4209,7 +4298,7 @@
         <v>409.0</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="5">
@@ -4250,7 +4339,7 @@
         <v>0.0</v>
       </c>
       <c r="S63" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
@@ -4262,7 +4351,7 @@
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B64" s="5">
         <v>3.0</v>
@@ -4271,7 +4360,7 @@
         <v>410.0</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="5">
@@ -4311,7 +4400,9 @@
       <c r="R64" s="5">
         <v>2.0</v>
       </c>
-      <c r="S64" s="4"/>
+      <c r="S64" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
@@ -4322,7 +4413,7 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B65" s="5">
         <v>3.0</v>
@@ -4331,7 +4422,7 @@
         <v>411.0</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="5">
@@ -4372,7 +4463,7 @@
         <v>2.0</v>
       </c>
       <c r="S65" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
@@ -4384,7 +4475,7 @@
     </row>
     <row r="66">
       <c r="A66" s="18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -4423,7 +4514,7 @@
         <v>400.0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="5">
@@ -4485,7 +4576,7 @@
         <v>401.0</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="5">
@@ -4525,7 +4616,9 @@
       <c r="R68" s="5">
         <v>0.0</v>
       </c>
-      <c r="S68" s="4"/>
+      <c r="S68" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
@@ -4536,7 +4629,7 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B69" s="5">
         <v>1.0</v>
@@ -4545,7 +4638,7 @@
         <v>402.0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="10">
@@ -4585,7 +4678,9 @@
       <c r="R69" s="10">
         <v>0.0</v>
       </c>
-      <c r="S69" s="8"/>
+      <c r="S69" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
@@ -4596,7 +4691,7 @@
     </row>
     <row r="70">
       <c r="A70" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B70" s="5">
         <v>2.0</v>
@@ -4605,7 +4700,7 @@
         <v>403.0</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="5">
@@ -4645,7 +4740,9 @@
       <c r="R70" s="5">
         <v>0.0</v>
       </c>
-      <c r="S70" s="4"/>
+      <c r="S70" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
@@ -4656,7 +4753,7 @@
     </row>
     <row r="71">
       <c r="A71" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B71" s="5">
         <v>2.0</v>
@@ -4665,7 +4762,7 @@
         <v>404.0</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="5">
@@ -4705,7 +4802,9 @@
       <c r="R71" s="5">
         <v>0.0</v>
       </c>
-      <c r="S71" s="4"/>
+      <c r="S71" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
@@ -4716,7 +4815,7 @@
     </row>
     <row r="72">
       <c r="A72" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B72" s="5">
         <v>2.0</v>
@@ -4725,7 +4824,7 @@
         <v>405.0</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="5">
@@ -4766,7 +4865,7 @@
         <v>1.0</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
@@ -4778,7 +4877,7 @@
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B73" s="5">
         <v>2.0</v>
@@ -4787,7 +4886,7 @@
         <v>406.0</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="5">
@@ -4828,7 +4927,7 @@
         <v>0.0</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
@@ -4840,7 +4939,7 @@
     </row>
     <row r="74">
       <c r="A74" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B74" s="5">
         <v>2.0</v>
@@ -4849,7 +4948,7 @@
         <v>407.0</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="5">
@@ -4889,7 +4988,9 @@
       <c r="R74" s="5">
         <v>0.0</v>
       </c>
-      <c r="S74" s="4"/>
+      <c r="S74" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
@@ -4900,7 +5001,7 @@
     </row>
     <row r="75">
       <c r="A75" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B75" s="5">
         <v>3.0</v>
@@ -4909,7 +5010,7 @@
         <v>408.0</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="5">
@@ -4949,7 +5050,9 @@
       <c r="R75" s="5">
         <v>0.0</v>
       </c>
-      <c r="S75" s="4"/>
+      <c r="S75" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
@@ -4960,7 +5063,7 @@
     </row>
     <row r="76">
       <c r="A76" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B76" s="5">
         <v>3.0</v>
@@ -4969,7 +5072,7 @@
         <v>409.0</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="5">
@@ -5010,7 +5113,7 @@
         <v>0.0</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
@@ -5022,7 +5125,7 @@
     </row>
     <row r="77">
       <c r="A77" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B77" s="5">
         <v>3.0</v>
@@ -5031,7 +5134,7 @@
         <v>410.0</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="5">
@@ -5071,7 +5174,9 @@
       <c r="R77" s="5">
         <v>2.0</v>
       </c>
-      <c r="S77" s="4"/>
+      <c r="S77" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
@@ -5082,7 +5187,7 @@
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B78" s="5">
         <v>3.0</v>
@@ -5091,7 +5196,7 @@
         <v>411.0</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="5">
@@ -5132,7 +5237,7 @@
         <v>2.0</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
@@ -5144,7 +5249,7 @@
     </row>
     <row r="79">
       <c r="A79" s="19" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -5183,7 +5288,7 @@
         <v>400.0</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="5">
@@ -5245,7 +5350,7 @@
         <v>401.0</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="5">
@@ -5285,7 +5390,9 @@
       <c r="R81" s="5">
         <v>0.0</v>
       </c>
-      <c r="S81" s="4"/>
+      <c r="S81" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
@@ -5296,7 +5403,7 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B82" s="5">
         <v>1.0</v>
@@ -5305,7 +5412,7 @@
         <v>402.0</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="10">
@@ -5345,7 +5452,9 @@
       <c r="R82" s="10">
         <v>0.0</v>
       </c>
-      <c r="S82" s="8"/>
+      <c r="S82" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
@@ -5356,7 +5465,7 @@
     </row>
     <row r="83">
       <c r="A83" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B83" s="5">
         <v>2.0</v>
@@ -5365,7 +5474,7 @@
         <v>403.0</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="5">
@@ -5405,7 +5514,9 @@
       <c r="R83" s="5">
         <v>0.0</v>
       </c>
-      <c r="S83" s="4"/>
+      <c r="S83" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
@@ -5416,7 +5527,7 @@
     </row>
     <row r="84">
       <c r="A84" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B84" s="5">
         <v>2.0</v>
@@ -5425,7 +5536,7 @@
         <v>404.0</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="5">
@@ -5465,7 +5576,9 @@
       <c r="R84" s="5">
         <v>0.0</v>
       </c>
-      <c r="S84" s="4"/>
+      <c r="S84" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
@@ -5476,7 +5589,7 @@
     </row>
     <row r="85">
       <c r="A85" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B85" s="5">
         <v>2.0</v>
@@ -5485,7 +5598,7 @@
         <v>405.0</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="5">
@@ -5526,7 +5639,7 @@
         <v>1.0</v>
       </c>
       <c r="S85" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
@@ -5538,7 +5651,7 @@
     </row>
     <row r="86">
       <c r="A86" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B86" s="5">
         <v>2.0</v>
@@ -5547,7 +5660,7 @@
         <v>406.0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="5">
@@ -5588,7 +5701,7 @@
         <v>0.0</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
@@ -5600,7 +5713,7 @@
     </row>
     <row r="87">
       <c r="A87" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B87" s="5">
         <v>2.0</v>
@@ -5609,7 +5722,7 @@
         <v>407.0</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="5">
@@ -5649,7 +5762,9 @@
       <c r="R87" s="5">
         <v>0.0</v>
       </c>
-      <c r="S87" s="4"/>
+      <c r="S87" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
@@ -5660,7 +5775,7 @@
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B88" s="5">
         <v>3.0</v>
@@ -5669,7 +5784,7 @@
         <v>408.0</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="5">
@@ -5709,7 +5824,9 @@
       <c r="R88" s="5">
         <v>0.0</v>
       </c>
-      <c r="S88" s="4"/>
+      <c r="S88" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
@@ -5720,7 +5837,7 @@
     </row>
     <row r="89">
       <c r="A89" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B89" s="5">
         <v>3.0</v>
@@ -5729,7 +5846,7 @@
         <v>409.0</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="5">
@@ -5770,7 +5887,7 @@
         <v>0.0</v>
       </c>
       <c r="S89" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
@@ -5782,7 +5899,7 @@
     </row>
     <row r="90">
       <c r="A90" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B90" s="5">
         <v>3.0</v>
@@ -5791,7 +5908,7 @@
         <v>410.0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="5">
@@ -5831,7 +5948,9 @@
       <c r="R90" s="5">
         <v>2.0</v>
       </c>
-      <c r="S90" s="4"/>
+      <c r="S90" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
@@ -5842,7 +5961,7 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B91" s="5">
         <v>3.0</v>
@@ -5851,7 +5970,7 @@
         <v>411.0</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="5">
@@ -5892,7 +6011,7 @@
         <v>2.0</v>
       </c>
       <c r="S91" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
